--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ndp-Lgr4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ndp-Lgr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -452,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,10 +537,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.05188266666666667</v>
+        <v>0.02640533333333334</v>
       </c>
       <c r="H2">
-        <v>0.155648</v>
+        <v>0.07921600000000001</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -558,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.519140333333333</v>
+        <v>1.834290333333333</v>
       </c>
       <c r="N2">
-        <v>4.557421</v>
+        <v>5.502871</v>
       </c>
       <c r="O2">
-        <v>0.09892575512374291</v>
+        <v>0.1177372815936135</v>
       </c>
       <c r="P2">
-        <v>0.0989257551237429</v>
+        <v>0.1177372815936135</v>
       </c>
       <c r="Q2">
-        <v>0.07881705153422222</v>
+        <v>0.04843504768177778</v>
       </c>
       <c r="R2">
-        <v>0.709353463808</v>
+        <v>0.435915429136</v>
       </c>
       <c r="S2">
-        <v>0.09892575512374291</v>
+        <v>0.1177372815936135</v>
       </c>
       <c r="T2">
-        <v>0.0989257551237429</v>
+        <v>0.1177372815936135</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +599,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.05188266666666667</v>
+        <v>0.02640533333333334</v>
       </c>
       <c r="H3">
-        <v>0.155648</v>
+        <v>0.07921600000000001</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -626,22 +623,22 @@
         <v>33.849725</v>
       </c>
       <c r="O3">
-        <v>0.7347597701322829</v>
+        <v>0.7242355134604062</v>
       </c>
       <c r="P3">
-        <v>0.7347597701322828</v>
+        <v>0.7242355134604062</v>
       </c>
       <c r="Q3">
-        <v>0.5854046663111111</v>
+        <v>0.2979377572888889</v>
       </c>
       <c r="R3">
-        <v>5.2686419968</v>
+        <v>2.6814398156</v>
       </c>
       <c r="S3">
-        <v>0.7347597701322829</v>
+        <v>0.7242355134604062</v>
       </c>
       <c r="T3">
-        <v>0.7347597701322828</v>
+        <v>0.7242355134604062</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +652,7 @@
         <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -664,10 +661,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.05188266666666667</v>
+        <v>0.02640533333333334</v>
       </c>
       <c r="H4">
-        <v>0.155648</v>
+        <v>0.07921600000000001</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -682,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2312856666666666</v>
+        <v>2.383963333333333</v>
       </c>
       <c r="N4">
-        <v>0.6938569999999999</v>
+        <v>7.15189</v>
       </c>
       <c r="O4">
-        <v>0.01506122161478935</v>
+        <v>0.1530190489394624</v>
       </c>
       <c r="P4">
-        <v>0.01506122161478935</v>
+        <v>0.1530190489394624</v>
       </c>
       <c r="Q4">
-        <v>0.01199971714844444</v>
+        <v>0.06294934647111113</v>
       </c>
       <c r="R4">
-        <v>0.107997454336</v>
+        <v>0.5665441182400001</v>
       </c>
       <c r="S4">
-        <v>0.01506122161478935</v>
+        <v>0.1530190489394624</v>
       </c>
       <c r="T4">
-        <v>0.01506122161478935</v>
+        <v>0.1530190489394624</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +714,7 @@
         <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -726,10 +723,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.05188266666666667</v>
+        <v>0.02640533333333334</v>
       </c>
       <c r="H5">
-        <v>0.155648</v>
+        <v>0.07921600000000001</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -738,96 +735,34 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>2.268274333333333</v>
+        <v>0.07802466666666667</v>
       </c>
       <c r="N5">
-        <v>6.804822999999999</v>
+        <v>0.234074</v>
       </c>
       <c r="O5">
-        <v>0.1477090340695787</v>
+        <v>0.005008156006517959</v>
       </c>
       <c r="P5">
-        <v>0.1477090340695787</v>
+        <v>0.005008156006517959</v>
       </c>
       <c r="Q5">
-        <v>0.1176841211448889</v>
+        <v>0.002060267331555556</v>
       </c>
       <c r="R5">
-        <v>1.059157090304</v>
+        <v>0.018542405984</v>
       </c>
       <c r="S5">
-        <v>0.1477090340695787</v>
+        <v>0.005008156006517959</v>
       </c>
       <c r="T5">
-        <v>0.1477090340695787</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G6">
-        <v>0.05188266666666667</v>
-      </c>
-      <c r="H6">
-        <v>0.155648</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>0.05442633333333333</v>
-      </c>
-      <c r="N6">
-        <v>0.163279</v>
-      </c>
-      <c r="O6">
-        <v>0.003544219059606216</v>
-      </c>
-      <c r="P6">
-        <v>0.003544219059606216</v>
-      </c>
-      <c r="Q6">
-        <v>0.002823783310222222</v>
-      </c>
-      <c r="R6">
-        <v>0.025414049792</v>
-      </c>
-      <c r="S6">
-        <v>0.003544219059606216</v>
-      </c>
-      <c r="T6">
-        <v>0.003544219059606216</v>
+        <v>0.005008156006517959</v>
       </c>
     </row>
   </sheetData>
